--- a/Code/Results/Cases/Case_5_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.94410512929942</v>
+        <v>23.51647972924649</v>
       </c>
       <c r="C2">
-        <v>22.07905646407247</v>
+        <v>16.07267116366805</v>
       </c>
       <c r="D2">
-        <v>2.93061255547522</v>
+        <v>6.09677355909968</v>
       </c>
       <c r="E2">
-        <v>8.798879310483727</v>
+        <v>12.32158857521591</v>
       </c>
       <c r="F2">
-        <v>45.42248121709817</v>
+        <v>48.68540974036421</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.851148987226987</v>
+        <v>10.44424916278716</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.9930095736561</v>
+        <v>19.69065503691036</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.84978399714352</v>
+        <v>23.01450742996591</v>
       </c>
       <c r="C3">
-        <v>20.46281400581137</v>
+        <v>15.60482678393141</v>
       </c>
       <c r="D3">
-        <v>2.875285129721621</v>
+        <v>6.101291582118661</v>
       </c>
       <c r="E3">
-        <v>8.465892182193931</v>
+        <v>12.30726967054525</v>
       </c>
       <c r="F3">
-        <v>43.28129521247613</v>
+        <v>48.3830329837312</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.708533765180126</v>
+        <v>10.45396233582873</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.24806844806844</v>
+        <v>19.75688350268325</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.61450778032268</v>
+        <v>22.7086730275475</v>
       </c>
       <c r="C4">
-        <v>19.42842985325811</v>
+        <v>15.31605601974711</v>
       </c>
       <c r="D4">
-        <v>2.841582744280641</v>
+        <v>6.104604796827756</v>
       </c>
       <c r="E4">
-        <v>8.263368399295514</v>
+        <v>12.30116094845516</v>
       </c>
       <c r="F4">
-        <v>41.97839438875543</v>
+        <v>48.21136809616186</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.625975838898722</v>
+        <v>10.46192875252649</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.40889015198136</v>
+        <v>19.7995782131349</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.10119191228884</v>
+        <v>22.58483208960017</v>
       </c>
       <c r="C5">
-        <v>19.00475117415285</v>
+        <v>15.19820172182457</v>
       </c>
       <c r="D5">
-        <v>2.827925711589121</v>
+        <v>6.106091166166432</v>
       </c>
       <c r="E5">
-        <v>8.181372046507681</v>
+        <v>12.29934718394929</v>
       </c>
       <c r="F5">
-        <v>41.45060901909464</v>
+        <v>48.14497429615874</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.593551037409753</v>
+        <v>10.46567755428517</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.4754713250885</v>
+        <v>19.81748732873598</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.01534111576469</v>
+        <v>22.56432167178713</v>
       </c>
       <c r="C6">
-        <v>18.93545473327341</v>
+        <v>15.17862747146456</v>
       </c>
       <c r="D6">
-        <v>2.825662919364793</v>
+        <v>6.106346221854106</v>
       </c>
       <c r="E6">
-        <v>8.167790532639039</v>
+        <v>12.29908683065347</v>
       </c>
       <c r="F6">
-        <v>41.36316929360764</v>
+        <v>48.134165823034</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.58823935497894</v>
+        <v>10.46633034969084</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.486589899032</v>
+        <v>19.82049197287164</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.60762632908569</v>
+        <v>22.70699941662838</v>
       </c>
       <c r="C7">
-        <v>19.42264340994428</v>
+        <v>15.31446704082637</v>
       </c>
       <c r="D7">
-        <v>2.841398235783445</v>
+        <v>6.104624290180083</v>
       </c>
       <c r="E7">
-        <v>8.262260332573995</v>
+        <v>12.30113375110292</v>
       </c>
       <c r="F7">
-        <v>41.97126336403725</v>
+        <v>48.21045821734276</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.625533666262299</v>
+        <v>10.46197727745137</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.40978387191746</v>
+        <v>19.79981767375291</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.23303594329577</v>
+        <v>23.34301977724238</v>
       </c>
       <c r="C8">
-        <v>21.53033234459884</v>
+        <v>15.91179058953592</v>
       </c>
       <c r="D8">
-        <v>2.911484989996374</v>
+        <v>6.098219861105385</v>
       </c>
       <c r="E8">
-        <v>8.683688228878928</v>
+        <v>12.31609519766947</v>
       </c>
       <c r="F8">
-        <v>44.68182504898856</v>
+        <v>48.57827243357162</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.800909763557623</v>
+        <v>10.44718201107515</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.08006784720712</v>
+        <v>19.71306935240545</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.17415005893491</v>
+        <v>24.60090203205951</v>
       </c>
       <c r="C9">
-        <v>25.34403662292427</v>
+        <v>17.06279902722094</v>
       </c>
       <c r="D9">
-        <v>3.05074360987346</v>
+        <v>6.089910612619341</v>
       </c>
       <c r="E9">
-        <v>9.524308110277939</v>
+        <v>12.36666690305405</v>
       </c>
       <c r="F9">
-        <v>50.09046819119131</v>
+        <v>49.40847033938102</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.186700456850727</v>
+        <v>10.43410329698464</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.46808875062185</v>
+        <v>19.55905582560074</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.57965059202992</v>
+        <v>25.52091696912137</v>
       </c>
       <c r="C10">
-        <v>27.97524939589112</v>
+        <v>17.88574570553739</v>
       </c>
       <c r="D10">
-        <v>3.153934590832093</v>
+        <v>6.086359240176841</v>
       </c>
       <c r="E10">
-        <v>10.15088781845167</v>
+        <v>12.41666295741446</v>
       </c>
       <c r="F10">
-        <v>54.13503966333488</v>
+        <v>50.08155185634362</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.499330078623634</v>
+        <v>10.43426526414429</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.04222654518466</v>
+        <v>19.45570354246046</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.088247676836</v>
+        <v>25.93644470233297</v>
       </c>
       <c r="C11">
-        <v>29.14211239021781</v>
+        <v>18.25328407356964</v>
       </c>
       <c r="D11">
-        <v>3.201090497744865</v>
+        <v>6.085290033698149</v>
       </c>
       <c r="E11">
-        <v>10.4385822455888</v>
+        <v>12.44216427130292</v>
       </c>
       <c r="F11">
-        <v>55.99826139343251</v>
+        <v>50.4006549212662</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.648980040928062</v>
+        <v>10.43646987167375</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.85468565229067</v>
+        <v>19.4108121546289</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.65453617618774</v>
+        <v>26.0932003413397</v>
       </c>
       <c r="C12">
-        <v>29.5803695706965</v>
+        <v>18.39133915044102</v>
       </c>
       <c r="D12">
-        <v>3.218985821901687</v>
+        <v>6.084963024510618</v>
       </c>
       <c r="E12">
-        <v>10.54801634499792</v>
+        <v>12.45221404385855</v>
       </c>
       <c r="F12">
-        <v>56.70821382884492</v>
+        <v>50.52327279289778</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.706836981181143</v>
+        <v>10.43761158056307</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.78469147654161</v>
+        <v>19.39411844397326</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.53278203471947</v>
+        <v>26.05946923166854</v>
       </c>
       <c r="C13">
-        <v>29.48613051307991</v>
+        <v>18.36165862133882</v>
       </c>
       <c r="D13">
-        <v>3.215129848269164</v>
+        <v>6.085029999223311</v>
       </c>
       <c r="E13">
-        <v>10.52442370418444</v>
+        <v>12.45003222986603</v>
       </c>
       <c r="F13">
-        <v>56.55509713585203</v>
+        <v>50.49678691627506</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.694321405934273</v>
+        <v>10.4373520394863</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.79971781061297</v>
+        <v>19.39770013340602</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.1349309613332</v>
+        <v>25.94935393400164</v>
       </c>
       <c r="C14">
-        <v>29.17823575479558</v>
+        <v>18.26466523656799</v>
       </c>
       <c r="D14">
-        <v>3.202561921688433</v>
+        <v>6.085261573653043</v>
       </c>
       <c r="E14">
-        <v>10.44757483579967</v>
+        <v>12.44298321850087</v>
       </c>
       <c r="F14">
-        <v>56.05657436652029</v>
+        <v>50.41070753745585</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.65371537238088</v>
+        <v>10.43655764858525</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.84890574136836</v>
+        <v>19.4094326250779</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.89061482725181</v>
+        <v>25.88182281670292</v>
       </c>
       <c r="C15">
-        <v>28.98919518985788</v>
+        <v>18.20510365016561</v>
       </c>
       <c r="D15">
-        <v>3.194869034946214</v>
+        <v>6.085413540981623</v>
       </c>
       <c r="E15">
-        <v>10.40057057478638</v>
+        <v>12.43871655829139</v>
       </c>
       <c r="F15">
-        <v>55.75182355788313</v>
+        <v>50.35821095794817</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.629001727110947</v>
+        <v>10.43611103555768</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.87917283056933</v>
+        <v>19.41665893213025</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.48031249008258</v>
+        <v>25.49368668051333</v>
       </c>
       <c r="C16">
-        <v>27.89844487942438</v>
+        <v>17.86157640403713</v>
       </c>
       <c r="D16">
-        <v>3.150857666583327</v>
+        <v>6.086440050457631</v>
       </c>
       <c r="E16">
-        <v>10.1321480101193</v>
+        <v>12.41505158465927</v>
       </c>
       <c r="F16">
-        <v>54.01382366587779</v>
+        <v>50.06095113938637</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.489709175264024</v>
+        <v>10.43416410940235</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.05461769059634</v>
+        <v>19.45868006177299</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.60529680733757</v>
+        <v>25.25469061114688</v>
       </c>
       <c r="C17">
-        <v>27.22206614515568</v>
+        <v>17.64898006997492</v>
       </c>
       <c r="D17">
-        <v>3.123916547806934</v>
+        <v>6.087209223568896</v>
       </c>
       <c r="E17">
-        <v>9.968223252916522</v>
+        <v>12.40123782990431</v>
       </c>
       <c r="F17">
-        <v>52.95421952739095</v>
+        <v>49.8818464401668</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.406237203352968</v>
+        <v>10.43351588324456</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.16391342391309</v>
+        <v>19.4850028485271</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.09813100722327</v>
+        <v>25.11695409256072</v>
       </c>
       <c r="C18">
-        <v>26.83014835431833</v>
+        <v>17.52606559685909</v>
       </c>
       <c r="D18">
-        <v>3.108440084654987</v>
+        <v>6.087703096274261</v>
       </c>
       <c r="E18">
-        <v>9.87417943352073</v>
+        <v>12.39355235122113</v>
       </c>
       <c r="F18">
-        <v>52.34687721762386</v>
+        <v>49.78005063558186</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.358917354562849</v>
+        <v>10.4333435970522</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.22734936828349</v>
+        <v>19.50034293039593</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.92572379344781</v>
+        <v>25.07027731087183</v>
       </c>
       <c r="C19">
-        <v>26.69693699827603</v>
+        <v>17.48434442296574</v>
       </c>
       <c r="D19">
-        <v>3.103203203926806</v>
+        <v>6.08787917296984</v>
       </c>
       <c r="E19">
-        <v>9.842376723537448</v>
+        <v>12.39099490791819</v>
       </c>
       <c r="F19">
-        <v>52.14157872174503</v>
+        <v>49.74579621305429</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.343011192419975</v>
+        <v>10.43331969342218</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.24892255086408</v>
+        <v>19.50557114685995</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.69883965444712</v>
+        <v>25.28016156330098</v>
       </c>
       <c r="C20">
-        <v>27.29436140349293</v>
+        <v>17.67167807489</v>
       </c>
       <c r="D20">
-        <v>3.126782435640084</v>
+        <v>6.087122022323816</v>
       </c>
       <c r="E20">
-        <v>9.985647708736112</v>
+        <v>12.40268146110948</v>
       </c>
       <c r="F20">
-        <v>53.06679102777871</v>
+        <v>49.90078666864979</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.415050650898339</v>
+        <v>10.4335641274693</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.15221868674809</v>
+        <v>19.48218005131849</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.25191707798714</v>
+        <v>25.98171490233227</v>
       </c>
       <c r="C21">
-        <v>29.26876338885572</v>
+        <v>18.29318611028442</v>
       </c>
       <c r="D21">
-        <v>3.206252292942294</v>
+        <v>6.085191446593266</v>
       </c>
       <c r="E21">
-        <v>10.47013280139274</v>
+        <v>12.44504304963293</v>
       </c>
       <c r="F21">
-        <v>56.20287334166595</v>
+        <v>50.43594344694669</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.665609014649669</v>
+        <v>10.4367826492582</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.83442897413268</v>
+        <v>19.40597820949631</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.89197844767646</v>
+        <v>26.43667881039389</v>
       </c>
       <c r="C22">
-        <v>30.53856236738863</v>
+        <v>18.69277101539929</v>
       </c>
       <c r="D22">
-        <v>3.258422510855036</v>
+        <v>6.084383302320571</v>
       </c>
       <c r="E22">
-        <v>10.7897171653711</v>
+        <v>12.47501738663038</v>
       </c>
       <c r="F22">
-        <v>58.27883665429967</v>
+        <v>50.79603903029474</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.836365382066502</v>
+        <v>10.44067491858673</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.63279985620119</v>
+        <v>19.35795781012327</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.01892700637039</v>
+        <v>26.19423214126234</v>
       </c>
       <c r="C23">
-        <v>29.86245299819867</v>
+        <v>18.48015309726493</v>
       </c>
       <c r="D23">
-        <v>3.230552863330567</v>
+        <v>6.084773348114206</v>
       </c>
       <c r="E23">
-        <v>10.61883080107115</v>
+        <v>12.45881141894173</v>
       </c>
       <c r="F23">
-        <v>57.16800295431372</v>
+        <v>50.60292948250854</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.744541141266637</v>
+        <v>10.43843376107117</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.73980085881267</v>
+        <v>19.38342406181026</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.65656178920181</v>
+        <v>25.26864717504147</v>
       </c>
       <c r="C24">
-        <v>27.26168629599783</v>
+        <v>17.66141844513771</v>
       </c>
       <c r="D24">
-        <v>3.125486729748532</v>
+        <v>6.087161285030811</v>
       </c>
       <c r="E24">
-        <v>9.977769500695656</v>
+        <v>12.40202799706612</v>
       </c>
       <c r="F24">
-        <v>53.01589179995314</v>
+        <v>49.89222012923249</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.411064015037229</v>
+        <v>10.43354169212808</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.15750401706558</v>
+        <v>19.48345559393942</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.87926749269692</v>
+        <v>24.26059631667642</v>
       </c>
       <c r="C25">
-        <v>24.344326721687</v>
+        <v>16.75471240777046</v>
       </c>
       <c r="D25">
-        <v>3.01291025020552</v>
+        <v>6.091707345534407</v>
       </c>
       <c r="E25">
-        <v>9.295444075396942</v>
+        <v>12.35072157389229</v>
       </c>
       <c r="F25">
-        <v>48.61663312635753</v>
+        <v>49.17253397481998</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.077515549091129</v>
+        <v>10.43592908034525</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.62973333473702</v>
+        <v>19.59899853923204</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_182/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_182/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.51647972924649</v>
+        <v>28.94410512929949</v>
       </c>
       <c r="C2">
-        <v>16.07267116366805</v>
+        <v>22.07905646407249</v>
       </c>
       <c r="D2">
-        <v>6.09677355909968</v>
+        <v>2.930612555475183</v>
       </c>
       <c r="E2">
-        <v>12.32158857521591</v>
+        <v>8.798879310483724</v>
       </c>
       <c r="F2">
-        <v>48.68540974036421</v>
+        <v>45.422481217098</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.44424916278716</v>
+        <v>6.851148987226988</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.69065503691036</v>
+        <v>12.99300957365594</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.01450742996591</v>
+        <v>26.84978399714362</v>
       </c>
       <c r="C3">
-        <v>15.60482678393141</v>
+        <v>20.46281400581145</v>
       </c>
       <c r="D3">
-        <v>6.101291582118661</v>
+        <v>2.87528512972163</v>
       </c>
       <c r="E3">
-        <v>12.30726967054525</v>
+        <v>8.465892182193874</v>
       </c>
       <c r="F3">
-        <v>48.3830329837312</v>
+        <v>43.28129521247595</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.45396233582873</v>
+        <v>6.708533765180082</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.75688350268325</v>
+        <v>13.24806844806831</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.7086730275475</v>
+        <v>25.61450778032273</v>
       </c>
       <c r="C4">
-        <v>15.31605601974711</v>
+        <v>19.42842985325818</v>
       </c>
       <c r="D4">
-        <v>6.104604796827756</v>
+        <v>2.841582744280647</v>
       </c>
       <c r="E4">
-        <v>12.30116094845516</v>
+        <v>8.263368399295528</v>
       </c>
       <c r="F4">
-        <v>48.21136809616186</v>
+        <v>41.97839438875525</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.46192875252649</v>
+        <v>6.625975838898696</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.7995782131349</v>
+        <v>13.40889015198123</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.58483208960017</v>
+        <v>25.10119191228883</v>
       </c>
       <c r="C5">
-        <v>15.19820172182457</v>
+        <v>19.00475117415284</v>
       </c>
       <c r="D5">
-        <v>6.106091166166432</v>
+        <v>2.827925711588901</v>
       </c>
       <c r="E5">
-        <v>12.29934718394929</v>
+        <v>8.181372046507628</v>
       </c>
       <c r="F5">
-        <v>48.14497429615874</v>
+        <v>41.45060901909462</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.46567755428517</v>
+        <v>6.593551037409759</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.81748732873598</v>
+        <v>13.47547132508856</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.56432167178713</v>
+        <v>25.0153411157647</v>
       </c>
       <c r="C6">
-        <v>15.17862747146456</v>
+        <v>18.93545473327345</v>
       </c>
       <c r="D6">
-        <v>6.106346221854106</v>
+        <v>2.825662919364857</v>
       </c>
       <c r="E6">
-        <v>12.29908683065347</v>
+        <v>8.167790532639073</v>
       </c>
       <c r="F6">
-        <v>48.134165823034</v>
+        <v>41.36316929360743</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.46633034969084</v>
+        <v>6.588239354978883</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.82049197287164</v>
+        <v>13.48658989903185</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.70699941662838</v>
+        <v>25.60762632908565</v>
       </c>
       <c r="C7">
-        <v>15.31446704082637</v>
+        <v>19.42264340994425</v>
       </c>
       <c r="D7">
-        <v>6.104624290180083</v>
+        <v>2.841398235783445</v>
       </c>
       <c r="E7">
-        <v>12.30113375110292</v>
+        <v>8.262260332574026</v>
       </c>
       <c r="F7">
-        <v>48.21045821734276</v>
+        <v>41.97126336403728</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.46197727745137</v>
+        <v>6.625533666262326</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.79981767375291</v>
+        <v>13.4097838719175</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.34301977724238</v>
+        <v>28.23303594329581</v>
       </c>
       <c r="C8">
-        <v>15.91179058953592</v>
+        <v>21.53033234459893</v>
       </c>
       <c r="D8">
-        <v>6.098219861105385</v>
+        <v>2.911484989996485</v>
       </c>
       <c r="E8">
-        <v>12.31609519766947</v>
+        <v>8.683688228878928</v>
       </c>
       <c r="F8">
-        <v>48.57827243357162</v>
+        <v>44.68182504898854</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.44718201107515</v>
+        <v>6.800909763557611</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.71306935240545</v>
+        <v>13.08006784720709</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60090203205951</v>
+        <v>33.17415005893486</v>
       </c>
       <c r="C9">
-        <v>17.06279902722094</v>
+        <v>25.34403662292425</v>
       </c>
       <c r="D9">
-        <v>6.089910612619341</v>
+        <v>3.050743609873459</v>
       </c>
       <c r="E9">
-        <v>12.36666690305405</v>
+        <v>9.524308110277923</v>
       </c>
       <c r="F9">
-        <v>49.40847033938102</v>
+        <v>50.09046819119131</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.43410329698464</v>
+        <v>7.186700456850718</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.55905582560074</v>
+        <v>12.46808875062179</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.52091696912137</v>
+        <v>36.57965059203</v>
       </c>
       <c r="C10">
-        <v>17.88574570553739</v>
+        <v>27.97524939589113</v>
       </c>
       <c r="D10">
-        <v>6.086359240176841</v>
+        <v>3.153934590832129</v>
       </c>
       <c r="E10">
-        <v>12.41666295741446</v>
+        <v>10.15088781845167</v>
       </c>
       <c r="F10">
-        <v>50.08155185634362</v>
+        <v>54.13503966333494</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.43426526414429</v>
+        <v>7.499330078623665</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.45570354246046</v>
+        <v>12.0422265451847</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.93644470233297</v>
+        <v>38.08824767683598</v>
       </c>
       <c r="C11">
-        <v>18.25328407356964</v>
+        <v>29.14211239021762</v>
       </c>
       <c r="D11">
-        <v>6.085290033698149</v>
+        <v>3.201090497744865</v>
       </c>
       <c r="E11">
-        <v>12.44216427130292</v>
+        <v>10.4385822455888</v>
       </c>
       <c r="F11">
-        <v>50.4006549212662</v>
+        <v>55.99826139343248</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.43646987167375</v>
+        <v>7.648980040928058</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.4108121546289</v>
+        <v>11.85468565229072</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.0932003413397</v>
+        <v>38.65453617618779</v>
       </c>
       <c r="C12">
-        <v>18.39133915044102</v>
+        <v>29.58036957069664</v>
       </c>
       <c r="D12">
-        <v>6.084963024510618</v>
+        <v>3.218985821901659</v>
       </c>
       <c r="E12">
-        <v>12.45221404385855</v>
+        <v>10.54801634499796</v>
       </c>
       <c r="F12">
-        <v>50.52327279289778</v>
+        <v>56.70821382884511</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.43761158056307</v>
+        <v>7.706836981181119</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.39411844397326</v>
+        <v>11.78469147654149</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.05946923166854</v>
+        <v>38.53278203471961</v>
       </c>
       <c r="C13">
-        <v>18.36165862133882</v>
+        <v>29.4861305130801</v>
       </c>
       <c r="D13">
-        <v>6.085029999223311</v>
+        <v>3.215129848269333</v>
       </c>
       <c r="E13">
-        <v>12.45003222986603</v>
+        <v>10.52442370418441</v>
       </c>
       <c r="F13">
-        <v>50.49678691627506</v>
+        <v>56.55509713585213</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.4373520394863</v>
+        <v>7.694321405934229</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.39770013340602</v>
+        <v>11.79971781061291</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.94935393400164</v>
+        <v>38.1349309613333</v>
       </c>
       <c r="C14">
-        <v>18.26466523656799</v>
+        <v>29.17823575479562</v>
       </c>
       <c r="D14">
-        <v>6.085261573653043</v>
+        <v>3.202561921688388</v>
       </c>
       <c r="E14">
-        <v>12.44298321850087</v>
+        <v>10.44757483579964</v>
       </c>
       <c r="F14">
-        <v>50.41070753745585</v>
+        <v>56.05657436652041</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.43655764858525</v>
+        <v>7.65371537238087</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.4094326250779</v>
+        <v>11.84890574136835</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.88182281670292</v>
+        <v>37.89061482725183</v>
       </c>
       <c r="C15">
-        <v>18.20510365016561</v>
+        <v>28.98919518985786</v>
       </c>
       <c r="D15">
-        <v>6.085413540981623</v>
+        <v>3.194869034946147</v>
       </c>
       <c r="E15">
-        <v>12.43871655829139</v>
+        <v>10.40057057478639</v>
       </c>
       <c r="F15">
-        <v>50.35821095794817</v>
+        <v>55.7518235578832</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.43611103555768</v>
+        <v>7.62900172711095</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.41665893213025</v>
+        <v>11.87917283056937</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.49368668051333</v>
+        <v>36.48031249008258</v>
       </c>
       <c r="C16">
-        <v>17.86157640403713</v>
+        <v>27.89844487942441</v>
       </c>
       <c r="D16">
-        <v>6.086440050457631</v>
+        <v>3.150857666583258</v>
       </c>
       <c r="E16">
-        <v>12.41505158465927</v>
+        <v>10.13214801011929</v>
       </c>
       <c r="F16">
-        <v>50.06095113938637</v>
+        <v>54.01382366587782</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.43416410940235</v>
+        <v>7.489709175264007</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.45868006177299</v>
+        <v>12.05461769059637</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25469061114688</v>
+        <v>35.60529680733783</v>
       </c>
       <c r="C17">
-        <v>17.64898006997492</v>
+        <v>27.22206614515584</v>
       </c>
       <c r="D17">
-        <v>6.087209223568896</v>
+        <v>3.123916547807029</v>
       </c>
       <c r="E17">
-        <v>12.40123782990431</v>
+        <v>9.968223252916538</v>
       </c>
       <c r="F17">
-        <v>49.8818464401668</v>
+        <v>52.95421952739112</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.43351588324456</v>
+        <v>7.406237203352985</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.4850028485271</v>
+        <v>12.16391342391297</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.11695409256072</v>
+        <v>35.09813100722347</v>
       </c>
       <c r="C18">
-        <v>17.52606559685909</v>
+        <v>26.83014835431832</v>
       </c>
       <c r="D18">
-        <v>6.087703096274261</v>
+        <v>3.108440084655082</v>
       </c>
       <c r="E18">
-        <v>12.39355235122113</v>
+        <v>9.874179433520769</v>
       </c>
       <c r="F18">
-        <v>49.78005063558186</v>
+        <v>52.34687721762399</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.4333435970522</v>
+        <v>7.35891735456282</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.50034293039593</v>
+        <v>12.22734936828337</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.07027731087183</v>
+        <v>34.92572379344784</v>
       </c>
       <c r="C19">
-        <v>17.48434442296574</v>
+        <v>26.69693699827607</v>
       </c>
       <c r="D19">
-        <v>6.08787917296984</v>
+        <v>3.103203203926795</v>
       </c>
       <c r="E19">
-        <v>12.39099490791819</v>
+        <v>9.84237672353744</v>
       </c>
       <c r="F19">
-        <v>49.74579621305429</v>
+        <v>52.14157872174498</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.43331969342218</v>
+        <v>7.343011192419977</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.50557114685995</v>
+        <v>12.24892255086407</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28016156330098</v>
+        <v>35.69883965444717</v>
       </c>
       <c r="C20">
-        <v>17.67167807489</v>
+        <v>27.29436140349308</v>
       </c>
       <c r="D20">
-        <v>6.087122022323816</v>
+        <v>3.126782435640096</v>
       </c>
       <c r="E20">
-        <v>12.40268146110948</v>
+        <v>9.985647708736121</v>
       </c>
       <c r="F20">
-        <v>49.90078666864979</v>
+        <v>53.06679102777888</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.4335641274693</v>
+        <v>7.415050650898354</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.48218005131849</v>
+        <v>12.15221868674812</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.98171490233227</v>
+        <v>38.25191707798719</v>
       </c>
       <c r="C21">
-        <v>18.29318611028442</v>
+        <v>29.26876338885572</v>
       </c>
       <c r="D21">
-        <v>6.085191446593266</v>
+        <v>3.206252292942397</v>
       </c>
       <c r="E21">
-        <v>12.44504304963293</v>
+        <v>10.47013280139277</v>
       </c>
       <c r="F21">
-        <v>50.43594344694669</v>
+        <v>56.20287334166591</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.4367826492582</v>
+        <v>7.665609014649647</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.40597820949631</v>
+        <v>11.83442897413264</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.43667881039389</v>
+        <v>39.89197844767641</v>
       </c>
       <c r="C22">
-        <v>18.69277101539929</v>
+        <v>30.53856236738864</v>
       </c>
       <c r="D22">
-        <v>6.084383302320571</v>
+        <v>3.258422510855061</v>
       </c>
       <c r="E22">
-        <v>12.47501738663038</v>
+        <v>10.78971716537112</v>
       </c>
       <c r="F22">
-        <v>50.79603903029474</v>
+        <v>58.2788366542995</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.44067491858673</v>
+        <v>7.836365382066502</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.35795781012327</v>
+        <v>11.63279985620115</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.19423214126234</v>
+        <v>39.01892700637026</v>
       </c>
       <c r="C23">
-        <v>18.48015309726493</v>
+        <v>29.86245299819864</v>
       </c>
       <c r="D23">
-        <v>6.084773348114206</v>
+        <v>3.23055286333049</v>
       </c>
       <c r="E23">
-        <v>12.45881141894173</v>
+        <v>10.61883080107111</v>
       </c>
       <c r="F23">
-        <v>50.60292948250854</v>
+        <v>57.16800295431361</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.43843376107117</v>
+        <v>7.744541141266592</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.38342406181026</v>
+        <v>11.73980085881268</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.26864717504147</v>
+        <v>35.65656178920177</v>
       </c>
       <c r="C24">
-        <v>17.66141844513771</v>
+        <v>27.26168629599781</v>
       </c>
       <c r="D24">
-        <v>6.087161285030811</v>
+        <v>3.125486729748449</v>
       </c>
       <c r="E24">
-        <v>12.40202799706612</v>
+        <v>9.977769500695661</v>
       </c>
       <c r="F24">
-        <v>49.89222012923249</v>
+        <v>53.01589179995311</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.43354169212808</v>
+        <v>7.411064015037234</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.48345559393942</v>
+        <v>12.15750401706554</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.26059631667642</v>
+        <v>31.87926749269687</v>
       </c>
       <c r="C25">
-        <v>16.75471240777046</v>
+        <v>24.3443267216869</v>
       </c>
       <c r="D25">
-        <v>6.091707345534407</v>
+        <v>3.012910250205499</v>
       </c>
       <c r="E25">
-        <v>12.35072157389229</v>
+        <v>9.29544407539697</v>
       </c>
       <c r="F25">
-        <v>49.17253397481998</v>
+        <v>48.61663312635749</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.43592908034525</v>
+        <v>7.077515549091161</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.59899853923204</v>
+        <v>12.62973333473708</v>
       </c>
       <c r="O25">
         <v>0</v>
